--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t xml:space="preserve"> Nie mogłem znaleźć literatury w której byłaby tabela koncentracji swobodnych nośników ładunku</t>
-  </si>
-  <si>
     <t>10. Uzyskane wartości parametrów gammaB i n porównać z danymi literaturowymi oraz określić rodzaj materiału, z którego wykonany był badany hallotron.</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>9. Obliczyć koncentrację n swobodnych nośników ładunku oraz jej niepewność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hallotron zosta wytworzony z półprzewodnika.</t>
   </si>
 </sst>
 </file>
@@ -8378,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8390,7 +8390,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="5"/>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
@@ -8429,11 +8429,11 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8447,7 +8447,7 @@
         <v>353.2944756</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -8473,7 +8473,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -8683,9 +8683,9 @@
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>

--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>10. Uzyskane wartości parametrów gammaB i n porównać z danymi literaturowymi oraz określić rodzaj materiału, z którego wykonany był badany hallotron.</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Hallotron zosta wytworzony z półprzewodnika.</t>
+  </si>
+  <si>
+    <t>Tabela 1.5- Wartości potrzebne do liczenia koncentracji nośników</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -111,17 +114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -142,32 +134,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -202,39 +172,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -247,46 +184,137 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,72 +322,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8378,340 +8388,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20">
         <v>353.2944756</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20">
         <v>0.1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A26:H27"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A28:H29"/>
+    <mergeCell ref="D2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex9,10.xlsx
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,42 +325,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -370,6 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,22 +1029,22 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>216875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18317</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="307969" cy="172227"/>
+    <xdr:ext cx="855995" cy="175369"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="826475" y="378069"/>
-              <a:ext cx="307969" cy="172227"/>
+              <a:off x="646234" y="611588"/>
+              <a:ext cx="855995" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1061,7 +1066,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -1073,27 +1078,43 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜇</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑚</m:t>
-                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1.602∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−19</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1105,13 +1126,13 @@
       <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="826475" y="378069"/>
-              <a:ext cx="307969" cy="172227"/>
+              <a:off x="646234" y="611588"/>
+              <a:ext cx="855995" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1133,199 +1154,34 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜇</a:t>
+                </a:rPr>
+                <a:t>〖1.602∗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑚</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36634</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18317</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="830035" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="646234" y="589817"/>
-              <a:ext cx="830035" cy="175369"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>1.602∗</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>10</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>−19</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>C</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="646234" y="589817"/>
-              <a:ext cx="830035" cy="175369"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>10〗^(</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>〖1.602∗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>10〗^(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
                 <a:t>−19)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>C</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -1633,7 +1489,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5372100" cy="276225"/>
+    <xdr:ext cx="4682218" cy="276225"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1643,8 +1499,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="85725" y="1381125"/>
-              <a:ext cx="5372100" cy="276225"/>
+              <a:off x="85725" y="1413782"/>
+              <a:ext cx="4682218" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1872,7 +1728,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>353.2944756</m:t>
+                        <m:t>353</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -2028,7 +1884,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>706.5889512</m:t>
+                        <m:t>706</m:t>
                       </m:r>
                     </m:den>
                   </m:f>
@@ -2058,43 +1914,19 @@
                 </a:rPr>
                 <a:t>8.83427E+15</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>[1/(</a:t>
-              </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
-                    <a:rPr lang="en-US" sz="1100" i="1">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>𝜇</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑚</m:t>
+                    <m:t>≈</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -2108,7 +1940,136 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^3)]</a:t>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8.8E+15[</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜇</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑚</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -2132,8 +2093,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="85725" y="1381125"/>
-              <a:ext cx="5372100" cy="276225"/>
+              <a:off x="85725" y="1413782"/>
+              <a:ext cx="4682218" cy="276225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2282,7 +2243,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"353.2944756</a:t>
+                <a:t>"353</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -2390,7 +2351,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"706.5889512</a:t>
+                <a:t>"706</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2429,6 +2390,42 @@
                 <a:t>8.83427E+15</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8.8E+15[</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -2438,7 +2435,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>[1/(</a:t>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/("</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -2446,7 +2455,31 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2458,14 +2491,26 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑚</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pl-PL" sz="1100">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2474,7 +2519,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^3)]</a:t>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -6032,12 +6089,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4853420" cy="762000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -6045,7 +6102,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="95250" y="3619501"/>
+              <a:off x="95250" y="3941380"/>
               <a:ext cx="4853420" cy="762000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7063,22 +7120,10 @@
                 </a:rPr>
                 <a:t>9.58083E+14</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>[1/(</a:t>
-              </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
-                    <a:rPr lang="en-US" sz="1100" i="1">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -7087,7 +7132,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>𝜇</m:t>
+                    <m:t> </m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -7099,38 +7144,139 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>𝑚</m:t>
+                    <m:t>≈</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="pl-PL">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t>^3)]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>9.6E+14[</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜇</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑚</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -7284,7 +7430,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -7292,7 +7438,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="95250" y="3619501"/>
+              <a:off x="95250" y="3941380"/>
               <a:ext cx="4853420" cy="762000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7901,7 +8047,31 @@
                 <a:t>9.58083E+14</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -7910,7 +8080,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>[1/(</a:t>
+                <a:t>9.6E+14[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -7918,11 +8124,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 〖𝜇</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -7937,33 +8155,29 @@
                 <a:t>𝑚</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pl-PL">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t>^3)]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^3 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -8113,6 +8327,213 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="631968" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="3648403"/>
+              <a:ext cx="631968" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= n(</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, d)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="3648403"/>
+              <a:ext cx="631968" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= n(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, d)</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8388,8 +8809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8397,139 +8818,147 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20">
-        <v>353.2944756</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="10">
+        <v>353</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10">
         <v>0.1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
         <v>34</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
